--- a/biology/Botanique/Oxytropis/Oxytropis.xlsx
+++ b/biology/Botanique/Oxytropis/Oxytropis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oxytropis est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire des régions tempérées et tempérées froides de l'hémisphère Nord (Eurasie et Amérique du Nord), qui comprend environ 600 espèces acceptées[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oxytropis est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire des régions tempérées et tempérées froides de l'hémisphère Nord (Eurasie et Amérique du Nord), qui comprend environ 600 espèces acceptées. 
 Ce sont des plantes herbacées ou des sous-arbrisseaux à port en coussinet. 
-Certaines espèces sont utilisées comme plantes médicinales, comme ingrédients alimentaires ou comme plantes ornementales ; d'autres servent à l'alimentation du bétail (plantes fourragères)[3]. 
-De nombreuses espèces de ce genre sont toxiques pour le bétail, chez qui elles provoquent les symptômes neurologiques du locoïsme. Cette toxicité, qui se manifeste aussi dans le genre voisin Astragalus,  est due à un alcaloïde, la swainsonine, produite par des champignons endophytes du genre Alternaria[4],[5].  
+Certaines espèces sont utilisées comme plantes médicinales, comme ingrédients alimentaires ou comme plantes ornementales ; d'autres servent à l'alimentation du bétail (plantes fourragères). 
+De nombreuses espèces de ce genre sont toxiques pour le bétail, chez qui elles provoquent les symptômes neurologiques du locoïsme. Cette toxicité, qui se manifeste aussi dans le genre voisin Astragalus,  est due à un alcaloïde, la swainsonine, produite par des champignons endophytes du genre Alternaria,.  
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (19 décembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (19 décembre 2018) :
 Oxytropis acanthacea Jurtzev
 Oxytropis aciphylla Ledeb.
 Oxytropis adamsiana (Trautv.) Jurtzev
